--- a/data/trans_camb/IP43-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP43-Habitat-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 24,33</t>
+          <t>-17,52; 24,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,63; -7,95</t>
+          <t>-36,6; -7,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 27,52</t>
+          <t>-12,02; 27,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,85; -2,69</t>
+          <t>-27,94; -2,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 18,7</t>
+          <t>-8,0; 19,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,28; -7,69</t>
+          <t>-26,5; -7,65</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,8; 240,24</t>
+          <t>-64,31; 303,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,85; inf</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 191,71</t>
+          <t>-41,68; 248,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,48; -9,54</t>
+          <t>-26,28; -10,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-40,69; -26,79</t>
+          <t>-40,37; -26,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,37; -7,29</t>
+          <t>-26,13; -8,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-40,35; -26,1</t>
+          <t>-40,17; -26,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,07; -11,14</t>
+          <t>-23,72; -11,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,24; -27,97</t>
+          <t>-38,03; -28,18</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,25; -33,05</t>
+          <t>-72,34; -34,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,31; -27,16</t>
+          <t>-67,47; -27,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,92; -37,43</t>
+          <t>-65,11; -37,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,93; -9,51</t>
+          <t>-22,84; -9,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,52; -28,47</t>
+          <t>-38,93; -28,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,6; -7,6</t>
+          <t>-21,08; -8,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-36,18; -26,58</t>
+          <t>-37,07; -26,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,99; -10,63</t>
+          <t>-19,75; -10,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,12; -28,78</t>
+          <t>-35,98; -28,68</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,48; -30,83</t>
+          <t>-61,49; -31,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,33; -27,33</t>
+          <t>-59,81; -28,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,94; -35,96</t>
+          <t>-56,58; -35,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,99; -5,78</t>
+          <t>-15,97; -5,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,18; -12,46</t>
+          <t>-21,27; -12,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,56; -4,95</t>
+          <t>-15,2; -4,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -12,09</t>
+          <t>-21,82; -12,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,23; -6,38</t>
+          <t>-14,67; -7,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -13,16</t>
+          <t>-19,79; -13,41</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-81,87; -40,02</t>
+          <t>-81,66; -39,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-76,04; -35,96</t>
+          <t>-75,31; -30,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,83; -46,25</t>
+          <t>-75,59; -46,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -1,51</t>
+          <t>-11,08; -1,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,94; -8,9</t>
+          <t>-17,08; -9,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 0,31</t>
+          <t>-11,48; -0,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -10,69</t>
+          <t>-19,58; -10,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -2,4</t>
+          <t>-9,1; -2,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -10,97</t>
+          <t>-17,1; -10,86</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-70,72; -9,46</t>
+          <t>-71,81; -15,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 3,29</t>
+          <t>-63,78; -0,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-60,43; -18,33</t>
+          <t>-59,18; -18,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,12; -8,63</t>
+          <t>-15,03; -8,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-25,94; -20,9</t>
+          <t>-26,05; -20,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -7,39</t>
+          <t>-14,07; -7,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-25,55; -20,28</t>
+          <t>-25,47; -20,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -9,06</t>
+          <t>-13,54; -9,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-25,25; -21,36</t>
+          <t>-24,99; -21,35</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-59,72; -40,48</t>
+          <t>-59,34; -38,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-55,53; -34,9</t>
+          <t>-55,76; -34,48</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-55,61; -41,4</t>
+          <t>-55,21; -40,78</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">

--- a/data/trans_camb/IP43-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP43-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>-13,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-19,07</t>
+          <t>-29,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>-14,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,48</t>
+          <t>-30,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>-13,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,14</t>
+          <t>-30,07</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 24,02</t>
+          <t>-21,1; -4,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,6; -7,36</t>
+          <t>-36,5; -23,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 27,23</t>
+          <t>-22,67; -5,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,94; -2,79</t>
+          <t>-37,53; -25,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 19,69</t>
+          <t>-19,4; -7,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,5; -7,65</t>
+          <t>-34,86; -25,63</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>-44,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,56%</t>
+          <t>-47,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>-46,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,31; 303,65</t>
+          <t>-63,23; -16,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,85; inf</t>
+          <t>-64,2; -21,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 248,5</t>
+          <t>-58,67; -30,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-18,1</t>
+          <t>-14,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-32,87</t>
+          <t>-31,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,94</t>
+          <t>-16,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-33,0</t>
+          <t>-33,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,55</t>
+          <t>-15,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-32,93</t>
+          <t>-32,49</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,28; -10,2</t>
+          <t>-20,81; -8,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-40,37; -26,63</t>
+          <t>-36,53; -26,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,13; -8,44</t>
+          <t>-22,47; -9,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-40,17; -26,07</t>
+          <t>-38,63; -28,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,72; -11,37</t>
+          <t>-19,69; -10,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,03; -28,18</t>
+          <t>-36,05; -29,4</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-55,08%</t>
+          <t>-46,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-51,34%</t>
+          <t>-48,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-53,3%</t>
+          <t>-47,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,34; -34,7</t>
+          <t>-59,22; -27,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,47; -27,98</t>
+          <t>-60,55; -32,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,11; -37,86</t>
+          <t>-56,25; -34,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,09</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-33,5</t>
+          <t>-16,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,46</t>
+          <t>-10,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-31,41</t>
+          <t>-16,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-15,3</t>
+          <t>-10,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-32,49</t>
+          <t>-16,47</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,84; -9,26</t>
+          <t>-15,39; -4,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,93; -28,55</t>
+          <t>-21,34; -12,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,08; -8,07</t>
+          <t>-16,56; -5,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-37,07; -26,25</t>
+          <t>-21,41; -12,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -10,5</t>
+          <t>-14,37; -6,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,98; -28,68</t>
+          <t>-20,08; -13,71</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-48,02%</t>
+          <t>-59,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-46,04%</t>
+          <t>-66,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,1%</t>
+          <t>-62,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,49; -31,02</t>
+          <t>-75,16; -33,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,81; -28,92</t>
+          <t>-81,2; -36,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,58; -35,15</t>
+          <t>-75,26; -44,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-10,93</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-16,45</t>
+          <t>-14,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-16,5</t>
+          <t>-12,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-10,36</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-16,47</t>
+          <t>-13,65</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -5,66</t>
+          <t>-10,67; -0,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,27; -12,44</t>
+          <t>-19,16; -10,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -4,2</t>
+          <t>-11,09; -1,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,82; -12,08</t>
+          <t>-16,89; -9,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,67; -7,04</t>
+          <t>-9,54; -1,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -13,41</t>
+          <t>-16,68; -10,82</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-66,45%</t>
+          <t>-35,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-59,09%</t>
+          <t>-48,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-62,88%</t>
+          <t>-41,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-81,66; -39,57</t>
+          <t>-59,49; 0,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,31; -30,48</t>
+          <t>-71,24; -10,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,59; -46,58</t>
+          <t>-59,95; -16,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-12,69</t>
+          <t>-22,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-11,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-14,61</t>
+          <t>-23,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,72</t>
+          <t>-11,22</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-13,65</t>
+          <t>-23,1</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -1,69</t>
+          <t>-13,53; -7,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -9,17</t>
+          <t>-25,82; -20,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,48; -0,24</t>
+          <t>-15,07; -8,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,58; -10,84</t>
+          <t>-26,06; -20,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,1; -2,16</t>
+          <t>-13,5; -8,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,1; -10,86</t>
+          <t>-24,85; -21,13</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-48,93%</t>
+          <t>-45,96%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-35,88%</t>
+          <t>-50,97%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-41,93%</t>
+          <t>-48,57%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-71,81; -15,47</t>
+          <t>-55,03; -34,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-63,78; -0,29</t>
+          <t>-59,6; -41,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,18; -18,26</t>
+          <t>-55,23; -40,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1369,170 +1369,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-11,91</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-23,37</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-10,48</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-22,81</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-11,22</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-23,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-15,03; -8,54</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-26,05; -20,83</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-14,07; -7,42</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-25,47; -20,3</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; -9,05</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-24,99; -21,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-50,97%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-45,96%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-48,57%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-59,34; -38,42</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-55,76; -34,48</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-55,21; -40,78</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
